--- a/src/main/resources/templates/jxlsTemplate.xlsx
+++ b/src/main/resources/templates/jxlsTemplate.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23160" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="19635" windowHeight="8475"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -174,10 +175,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -450,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,25 +462,25 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="60" customHeight="1">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" s="2" t="s">
@@ -544,16 +545,16 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2"/>
